--- a/OES_Report.xlsx
+++ b/OES_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="227">
   <si>
     <t>One occupation for multiple geographical areas</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Employment per 1,000 jobs</t>
   </si>
   <si>
+    <t>Location Quotient</t>
+  </si>
+  <si>
     <t>Alaska nonmetropolitan area(0200006)</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t xml:space="preserve">       0.975</t>
   </si>
   <si>
+    <t xml:space="preserve">        6.79</t>
+  </si>
+  <si>
     <t>Albany-Schenectady-Troy, NY(0010580)</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">       0.105</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.73</t>
+  </si>
+  <si>
     <t>Anchorage, AK(0011260)</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t xml:space="preserve">       1.564</t>
   </si>
   <si>
+    <t xml:space="preserve">       10.88</t>
+  </si>
+  <si>
     <t>Atlanta-Sandy Springs-Roswell, GA(0012060)</t>
   </si>
   <si>
@@ -103,6 +115,9 @@
     <t xml:space="preserve">       0.279</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.94</t>
+  </si>
+  <si>
     <t>Birmingham-Hoover, AL(0013820)</t>
   </si>
   <si>
@@ -112,6 +127,9 @@
     <t xml:space="preserve">       0.080</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.56</t>
+  </si>
+  <si>
     <t>Boston-Cambridge-Nashua, MA-NH(0071650)</t>
   </si>
   <si>
@@ -124,6 +142,9 @@
     <t xml:space="preserve">       0.166</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.16</t>
+  </si>
+  <si>
     <t>Buffalo-Cheektowaga-Niagara Falls, NY(0015380)</t>
   </si>
   <si>
@@ -136,6 +157,9 @@
     <t xml:space="preserve">       0.103</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.71</t>
+  </si>
+  <si>
     <t>Burlington-South Burlington, VT(0072400)</t>
   </si>
   <si>
@@ -145,6 +169,9 @@
     <t xml:space="preserve">       0.323</t>
   </si>
   <si>
+    <t xml:space="preserve">        2.25</t>
+  </si>
+  <si>
     <t>Cape Coral-Fort Myers, FL(0015980)</t>
   </si>
   <si>
@@ -154,6 +181,9 @@
     <t xml:space="preserve">       0.171</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.19</t>
+  </si>
+  <si>
     <t>Chicago-Naperville-Elgin, IL-IN-WI(0016980)</t>
   </si>
   <si>
@@ -166,6 +196,9 @@
     <t xml:space="preserve">       0.157</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.09</t>
+  </si>
+  <si>
     <t>Cleveland-Elyria, OH(0017460)</t>
   </si>
   <si>
@@ -178,6 +211,9 @@
     <t xml:space="preserve">       0.483</t>
   </si>
   <si>
+    <t xml:space="preserve">        3.36</t>
+  </si>
+  <si>
     <t>Crestview-Fort Walton Beach-Destin, FL(0018880)</t>
   </si>
   <si>
@@ -190,6 +226,9 @@
     <t xml:space="preserve">       0.622</t>
   </si>
   <si>
+    <t xml:space="preserve">        4.33</t>
+  </si>
+  <si>
     <t>Denver-Aurora-Lakewood, CO(0019740)</t>
   </si>
   <si>
@@ -202,6 +241,9 @@
     <t xml:space="preserve">       0.156</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.08</t>
+  </si>
+  <si>
     <t>Detroit-Warren-Dearborn, MI(0019820)</t>
   </si>
   <si>
@@ -214,6 +256,9 @@
     <t xml:space="preserve">       0.118</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.82</t>
+  </si>
+  <si>
     <t>Eastern New Mexico nonmetropolitan area(3500007)</t>
   </si>
   <si>
@@ -223,6 +268,9 @@
     <t xml:space="preserve">       0.272</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.89</t>
+  </si>
+  <si>
     <t>Fairbanks, AK(0021820)</t>
   </si>
   <si>
@@ -235,6 +283,9 @@
     <t xml:space="preserve">       2.229</t>
   </si>
   <si>
+    <t xml:space="preserve">       15.51</t>
+  </si>
+  <si>
     <t>Gulfport-Biloxi-Pascagoula, MS(0025060)</t>
   </si>
   <si>
@@ -247,6 +298,9 @@
     <t xml:space="preserve">       0.229</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.59</t>
+  </si>
+  <si>
     <t>Houston-The Woodlands-Sugar Land, TX(0026420)</t>
   </si>
   <si>
@@ -259,6 +313,9 @@
     <t xml:space="preserve">       0.186</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.30</t>
+  </si>
+  <si>
     <t>Huntsville, AL(0026620)</t>
   </si>
   <si>
@@ -268,6 +325,9 @@
     <t xml:space="preserve">       0.188</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.31</t>
+  </si>
+  <si>
     <t>Jacksonville, FL(0027260)</t>
   </si>
   <si>
@@ -280,12 +340,18 @@
     <t xml:space="preserve">       0.542</t>
   </si>
   <si>
+    <t xml:space="preserve">        3.77</t>
+  </si>
+  <si>
     <t>Kansas City, MO-KS(0028140)</t>
   </si>
   <si>
     <t xml:space="preserve">       0.374</t>
   </si>
   <si>
+    <t xml:space="preserve">        2.60</t>
+  </si>
+  <si>
     <t>Kansas nonmetropolitan area(2000006)</t>
   </si>
   <si>
@@ -295,6 +361,9 @@
     <t xml:space="preserve">       0.091</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.64</t>
+  </si>
+  <si>
     <t>Las Vegas-Henderson-Paradise, NV(0029820)</t>
   </si>
   <si>
@@ -307,6 +376,9 @@
     <t xml:space="preserve">       0.193</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.34</t>
+  </si>
+  <si>
     <t>Los Angeles-Long Beach-Anaheim, CA(0031080)</t>
   </si>
   <si>
@@ -319,6 +391,9 @@
     <t xml:space="preserve">       0.130</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.90</t>
+  </si>
+  <si>
     <t>Miami-Fort Lauderdale-West Palm Beach, FL(0033100)</t>
   </si>
   <si>
@@ -331,6 +406,9 @@
     <t xml:space="preserve">       0.307</t>
   </si>
   <si>
+    <t xml:space="preserve">        2.13</t>
+  </si>
+  <si>
     <t>Minneapolis-St. Paul-Bloomington, MN-WI(0033460)</t>
   </si>
   <si>
@@ -343,6 +421,9 @@
     <t xml:space="preserve">       0.271</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.88</t>
+  </si>
+  <si>
     <t>New York-Newark-Jersey City, NY-NJ-PA(0035620)</t>
   </si>
   <si>
@@ -373,6 +454,9 @@
     <t xml:space="preserve">       0.214</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.49</t>
+  </si>
+  <si>
     <t>Omaha-Council Bluffs, NE-IA(0036540)</t>
   </si>
   <si>
@@ -382,6 +466,9 @@
     <t xml:space="preserve">       0.112</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.78</t>
+  </si>
+  <si>
     <t>Orlando-Kissimmee-Sanford, FL(0036740)</t>
   </si>
   <si>
@@ -394,6 +481,9 @@
     <t xml:space="preserve">       0.116</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.80</t>
+  </si>
+  <si>
     <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD(0037980)</t>
   </si>
   <si>
@@ -406,6 +496,9 @@
     <t xml:space="preserve">       0.057</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.39</t>
+  </si>
+  <si>
     <t>Phoenix-Mesa-Scottsdale, AZ(0038060)</t>
   </si>
   <si>
@@ -418,6 +511,9 @@
     <t xml:space="preserve">       0.095</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.66</t>
+  </si>
+  <si>
     <t>Portland-Vancouver-Hillsboro, OR-WA(0038900)</t>
   </si>
   <si>
@@ -427,6 +523,9 @@
     <t xml:space="preserve">       0.084</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.58</t>
+  </si>
+  <si>
     <t>Riverside-San Bernardino-Ontario, CA(0040140)</t>
   </si>
   <si>
@@ -439,6 +538,9 @@
     <t xml:space="preserve">       0.068</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.47</t>
+  </si>
+  <si>
     <t>Sacramento--Roseville--Arden-Arcade, CA(0040900)</t>
   </si>
   <si>
@@ -451,6 +553,9 @@
     <t xml:space="preserve">       0.224</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.56</t>
+  </si>
+  <si>
     <t>Salt Lake City, UT(0041620)</t>
   </si>
   <si>
@@ -463,6 +568,9 @@
     <t xml:space="preserve">       0.415</t>
   </si>
   <si>
+    <t xml:space="preserve">        2.89</t>
+  </si>
+  <si>
     <t>San Francisco-Oakland-Hayward, CA(0041860)</t>
   </si>
   <si>
@@ -475,6 +583,9 @@
     <t xml:space="preserve">       0.179</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.25</t>
+  </si>
+  <si>
     <t>San Juan-Carolina-Caguas, PR(0041980)</t>
   </si>
   <si>
@@ -487,6 +598,9 @@
     <t xml:space="preserve">       0.205</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.43</t>
+  </si>
+  <si>
     <t>Seattle-Tacoma-Bellevue, WA(0042660)</t>
   </si>
   <si>
@@ -499,6 +613,9 @@
     <t xml:space="preserve">       0.227</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.58</t>
+  </si>
+  <si>
     <t>Springfield, MA-CT(0078100)</t>
   </si>
   <si>
@@ -508,12 +625,18 @@
     <t xml:space="preserve">       0.213</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.48</t>
+  </si>
+  <si>
     <t>Springfield, MO(0044180)</t>
   </si>
   <si>
     <t xml:space="preserve">       0.197</t>
   </si>
   <si>
+    <t xml:space="preserve">        1.37</t>
+  </si>
+  <si>
     <t>St. Louis, MO-IL(0041180)</t>
   </si>
   <si>
@@ -526,6 +649,9 @@
     <t xml:space="preserve">       0.088</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.61</t>
+  </si>
+  <si>
     <t>Tampa-St. Petersburg-Clearwater, FL(0045300)</t>
   </si>
   <si>
@@ -544,6 +670,9 @@
     <t xml:space="preserve">       0.123</t>
   </si>
   <si>
+    <t xml:space="preserve">        0.85</t>
+  </si>
+  <si>
     <t>Washington-Arlington-Alexandria, DC-VA-MD-WV(0047900)</t>
   </si>
   <si>
@@ -556,6 +685,9 @@
     <t xml:space="preserve">       0.469</t>
   </si>
   <si>
+    <t xml:space="preserve">        3.27</t>
+  </si>
+  <si>
     <t>Yuma, AZ(0049740)</t>
   </si>
   <si>
@@ -563,6 +695,9 @@
   </si>
   <si>
     <t xml:space="preserve">       0.568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.96</t>
   </si>
   <si>
     <t>(1)Estimates for detailed occupations do not sum to the totals because the totals include occupations not shown separately. Estimates do not include self-employed workers.</t>
@@ -943,6 +1078,7 @@
     <col min="2" max="2" width="19.53125" customWidth="true"/>
     <col min="3" max="3" width="19.53125" customWidth="true"/>
     <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -975,689 +1111,833 @@
       <c r="D6" t="s" s="2">
         <v>6</v>
       </c>
+      <c r="E6" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="3">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="3">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="3">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s" s="3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="3">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>81</v>
+        <v>101</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="3">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>83</v>
+        <v>104</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="3">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="3">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>94</v>
+        <v>118</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="3">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="3">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>102</v>
+        <v>128</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="3">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>106</v>
+        <v>133</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s" s="3">
-        <v>112</v>
+        <v>139</v>
+      </c>
+      <c r="E35" t="s" s="3">
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>115</v>
+        <v>143</v>
+      </c>
+      <c r="E36" t="s" s="3">
+        <v>144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="3">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s" s="3">
-        <v>119</v>
+        <v>148</v>
+      </c>
+      <c r="E37" t="s" s="3">
+        <v>149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="3">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>123</v>
+        <v>153</v>
+      </c>
+      <c r="E38" t="s" s="3">
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s" s="3">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>127</v>
+        <v>158</v>
+      </c>
+      <c r="E39" t="s" s="3">
+        <v>159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="3">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s" s="3">
-        <v>130</v>
+        <v>162</v>
+      </c>
+      <c r="E40" t="s" s="3">
+        <v>163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="3">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="E41" t="s" s="3">
+        <v>168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="3">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s" s="3">
-        <v>138</v>
+        <v>172</v>
+      </c>
+      <c r="E42" t="s" s="3">
+        <v>173</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="3">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s" s="3">
-        <v>142</v>
+        <v>177</v>
+      </c>
+      <c r="E43" t="s" s="3">
+        <v>178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="3">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s" s="3">
-        <v>146</v>
+        <v>182</v>
+      </c>
+      <c r="E44" t="s" s="3">
+        <v>183</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="3">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s" s="3">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s" s="3">
-        <v>150</v>
+        <v>187</v>
+      </c>
+      <c r="E45" t="s" s="3">
+        <v>188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="3">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s" s="3">
-        <v>154</v>
+        <v>192</v>
+      </c>
+      <c r="E46" t="s" s="3">
+        <v>193</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="3">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s" s="3">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D47" t="s" s="3">
-        <v>157</v>
+        <v>196</v>
+      </c>
+      <c r="E47" t="s" s="3">
+        <v>197</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="3">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s" s="3">
-        <v>159</v>
+        <v>199</v>
+      </c>
+      <c r="E48" t="s" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="3">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s" s="3">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s" s="3">
-        <v>163</v>
+        <v>204</v>
+      </c>
+      <c r="E49" t="s" s="3">
+        <v>205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="3">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s" s="3">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E50" t="s" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="3">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s" s="3">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s" s="3">
-        <v>169</v>
+        <v>211</v>
+      </c>
+      <c r="E51" t="s" s="3">
+        <v>212</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="3">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s" s="3">
-        <v>173</v>
+        <v>216</v>
+      </c>
+      <c r="E52" t="s" s="3">
+        <v>217</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s" s="3">
-        <v>176</v>
+        <v>220</v>
+      </c>
+      <c r="E53" t="s" s="3">
+        <v>221</v>
       </c>
     </row>
     <row r="54"/>
     <row r="55">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1947,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: November 6, 2023 (03:11:54 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: November 6, 2023 (03:27:45 AM)</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/OES_Report.xlsx
+++ b/OES_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="775">
   <si>
     <t>One occupation for multiple geographical areas</t>
   </si>
@@ -40,6 +40,89 @@
   </si>
   <si>
     <r>
+      <t>Employment percent relative standard error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hourly mean wage</t>
+  </si>
+  <si>
+    <r>
+      <t>Annual mean wage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wage percent relative standard error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hourly 10th percentile wage</t>
+  </si>
+  <si>
+    <t>Hourly 25th percentile wage</t>
+  </si>
+  <si>
+    <t>Hourly median wage</t>
+  </si>
+  <si>
+    <t>Hourly 75th percentile wage</t>
+  </si>
+  <si>
+    <t>Hourly 90th percentile wage</t>
+  </si>
+  <si>
+    <r>
+      <t>Annual 10th percentile wage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annual 25th percentile wage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Annual median wage</t>
     </r>
     <r>
@@ -52,6 +135,32 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>Annual 75th percentile wage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annual 90th percentile wage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
     <t>Employment per 1,000 jobs</t>
   </si>
   <si>
@@ -64,9 +173,48 @@
     <t xml:space="preserve">         100</t>
   </si>
   <si>
+    <t xml:space="preserve">         3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       94060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       36.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       50.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       75110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82910</t>
+  </si>
+  <si>
     <t xml:space="preserve">       88340</t>
   </si>
   <si>
+    <t xml:space="preserve">      105730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      116420</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.975</t>
   </si>
   <si>
@@ -79,9 +227,48 @@
     <t xml:space="preserve">          40</t>
   </si>
   <si>
+    <t xml:space="preserve">         1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       95570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       33.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       41.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       53.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       58.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       70620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       85350</t>
+  </si>
+  <si>
     <t xml:space="preserve">       94200</t>
   </si>
   <si>
+    <t xml:space="preserve">      111430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      121280</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.105</t>
   </si>
   <si>
@@ -94,9 +281,45 @@
     <t xml:space="preserve">         260</t>
   </si>
   <si>
+    <t xml:space="preserve">         1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       65.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      136840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       41.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       69.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       78.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       86.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       85570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      114520</t>
+  </si>
+  <si>
     <t xml:space="preserve">      145450</t>
   </si>
   <si>
+    <t xml:space="preserve">      162470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      179550</t>
+  </si>
+  <si>
     <t xml:space="preserve">       1.564</t>
   </si>
   <si>
@@ -109,9 +332,45 @@
     <t xml:space="preserve">         760</t>
   </si>
   <si>
+    <t xml:space="preserve">         0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       77.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      160240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       48.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       72.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       81.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       93.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      100480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      151070</t>
+  </si>
+  <si>
     <t xml:space="preserve">      168830</t>
   </si>
   <si>
+    <t xml:space="preserve">      182330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      194460</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.279</t>
   </si>
   <si>
@@ -121,9 +380,48 @@
     <t>Birmingham-Hoover, AL(0013820)</t>
   </si>
   <si>
+    <t xml:space="preserve">         4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       51.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      106500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       47.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       51.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       54.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       81580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       99260</t>
+  </si>
+  <si>
     <t xml:space="preserve">      107370</t>
   </si>
   <si>
+    <t xml:space="preserve">      112720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      131890</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.080</t>
   </si>
   <si>
@@ -136,9 +434,48 @@
     <t xml:space="preserve">         450</t>
   </si>
   <si>
+    <t xml:space="preserve">         2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       75.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      157630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       47.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       72.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       86.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       94.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      150220</t>
+  </si>
+  <si>
     <t xml:space="preserve">      168080</t>
   </si>
   <si>
+    <t xml:space="preserve">      179090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      196480</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.166</t>
   </si>
   <si>
@@ -151,9 +488,48 @@
     <t xml:space="preserve">          50</t>
   </si>
   <si>
+    <t xml:space="preserve">         6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       48.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      100500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       34.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       37.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       56.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       71030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       77770</t>
+  </si>
+  <si>
     <t xml:space="preserve">       97410</t>
   </si>
   <si>
+    <t xml:space="preserve">      118390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      131640</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.103</t>
   </si>
   <si>
@@ -163,9 +539,48 @@
     <t>Burlington-South Burlington, VT(0072400)</t>
   </si>
   <si>
+    <t xml:space="preserve">        12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       41.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       86250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       28.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       31.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       44.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       53.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       59470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       65390</t>
+  </si>
+  <si>
     <t xml:space="preserve">       92440</t>
   </si>
   <si>
+    <t xml:space="preserve">       93930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      110610</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.323</t>
   </si>
   <si>
@@ -175,6 +590,9 @@
     <t>Cape Coral-Fort Myers, FL(0015980)</t>
   </si>
   <si>
+    <t xml:space="preserve">         4.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">           -</t>
   </si>
   <si>
@@ -190,9 +608,48 @@
     <t xml:space="preserve">         690</t>
   </si>
   <si>
+    <t xml:space="preserve">         5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       78.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      162290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       49.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       92.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      103710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      154170</t>
+  </si>
+  <si>
     <t xml:space="preserve">      172290</t>
   </si>
   <si>
+    <t xml:space="preserve">      192070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      203690</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.157</t>
   </si>
   <si>
@@ -205,9 +662,48 @@
     <t xml:space="preserve">         480</t>
   </si>
   <si>
+    <t xml:space="preserve">         0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       73.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      152860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       47.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       65.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       76.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       86.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       92.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       98220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      136910</t>
+  </si>
+  <si>
     <t xml:space="preserve">      159160</t>
   </si>
   <si>
+    <t xml:space="preserve">      180270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192280</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.483</t>
   </si>
   <si>
@@ -220,9 +716,48 @@
     <t xml:space="preserve">          70</t>
   </si>
   <si>
+    <t xml:space="preserve">        13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       89250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       25.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       35.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       44.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       52.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       53480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       73500</t>
+  </si>
+  <si>
     <t xml:space="preserve">       91750</t>
   </si>
   <si>
+    <t xml:space="preserve">      109490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      115420</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.622</t>
   </si>
   <si>
@@ -235,9 +770,45 @@
     <t xml:space="preserve">         240</t>
   </si>
   <si>
+    <t xml:space="preserve">         0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       71.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      148190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       30.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       54.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      114170</t>
+  </si>
+  <si>
     <t xml:space="preserve">      167380</t>
   </si>
   <si>
+    <t xml:space="preserve">      181230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      203130</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.156</t>
   </si>
   <si>
@@ -250,9 +821,45 @@
     <t xml:space="preserve">         220</t>
   </si>
   <si>
+    <t xml:space="preserve">        13.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       65.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      135440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       35.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       43.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       73.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       92.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       73470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       91350</t>
+  </si>
+  <si>
     <t xml:space="preserve">      152740</t>
   </si>
   <si>
+    <t xml:space="preserve">      167650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192050</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.118</t>
   </si>
   <si>
@@ -262,9 +869,39 @@
     <t>Eastern New Mexico nonmetropolitan area(3500007)</t>
   </si>
   <si>
+    <t xml:space="preserve">       42.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       89050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       31.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       35.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       43.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       52.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       64810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       73610</t>
+  </si>
+  <si>
     <t xml:space="preserve">       90980</t>
   </si>
   <si>
+    <t xml:space="preserve">      108800</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.272</t>
   </si>
   <si>
@@ -277,9 +914,39 @@
     <t xml:space="preserve">          80</t>
   </si>
   <si>
+    <t xml:space="preserve">         2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       44.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       53.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       61.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       81740</t>
+  </si>
+  <si>
     <t xml:space="preserve">       91730</t>
   </si>
   <si>
+    <t xml:space="preserve">      112170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      128920</t>
+  </si>
+  <si>
     <t xml:space="preserve">       2.229</t>
   </si>
   <si>
@@ -292,9 +959,45 @@
     <t xml:space="preserve">          30</t>
   </si>
   <si>
+    <t xml:space="preserve">         9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       44.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       93420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       27.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       40.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       44.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       50.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       57.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       57510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       84180</t>
+  </si>
+  <si>
     <t xml:space="preserve">       92250</t>
   </si>
   <si>
+    <t xml:space="preserve">      105890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      118750</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.229</t>
   </si>
   <si>
@@ -307,9 +1010,45 @@
     <t xml:space="preserve">         570</t>
   </si>
   <si>
+    <t xml:space="preserve">         1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       78.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      164020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       50.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       75.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       83.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       91.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      104710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      157160</t>
+  </si>
+  <si>
     <t xml:space="preserve">      172870</t>
   </si>
   <si>
+    <t xml:space="preserve">      189490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      202320</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.186</t>
   </si>
   <si>
@@ -319,9 +1058,45 @@
     <t>Huntsville, AL(0026620)</t>
   </si>
   <si>
+    <t xml:space="preserve">        13.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       48.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      100160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       52.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       57.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       88790</t>
+  </si>
+  <si>
     <t xml:space="preserve">       95620</t>
   </si>
   <si>
+    <t xml:space="preserve">      109740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      120310</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.188</t>
   </si>
   <si>
@@ -334,9 +1109,42 @@
     <t xml:space="preserve">         390</t>
   </si>
   <si>
+    <t xml:space="preserve">       67.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      140110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       57.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       73.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       79.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       83.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       83100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      120020</t>
+  </si>
+  <si>
     <t xml:space="preserve">      152360</t>
   </si>
   <si>
+    <t xml:space="preserve">      164550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      174510</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.542</t>
   </si>
   <si>
@@ -346,6 +1154,36 @@
     <t>Kansas City, MO-KS(0028140)</t>
   </si>
   <si>
+    <t xml:space="preserve">       66.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      137520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       35.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       59.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       84.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      123490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      155580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      175490</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.374</t>
   </si>
   <si>
@@ -355,9 +1193,39 @@
     <t>Kansas nonmetropolitan area(2000006)</t>
   </si>
   <si>
+    <t xml:space="preserve">       37.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       78810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       30.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       31.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       36.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       62930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       66070</t>
+  </si>
+  <si>
     <t xml:space="preserve">       76540</t>
   </si>
   <si>
+    <t xml:space="preserve">       97660</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.091</t>
   </si>
   <si>
@@ -370,9 +1238,45 @@
     <t xml:space="preserve">         200</t>
   </si>
   <si>
+    <t xml:space="preserve">       60.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      124840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       33.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       64.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       84.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       69120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       88770</t>
+  </si>
+  <si>
     <t xml:space="preserve">      134760</t>
   </si>
   <si>
+    <t xml:space="preserve">      155040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      175820</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.193</t>
   </si>
   <si>
@@ -385,9 +1289,48 @@
     <t xml:space="preserve">         790</t>
   </si>
   <si>
+    <t xml:space="preserve">        16.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       60.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      126090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       26.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       33.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       62.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       85.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       95.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       56120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       70640</t>
+  </si>
+  <si>
     <t xml:space="preserve">      130690</t>
   </si>
   <si>
+    <t xml:space="preserve">      177590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      198660</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.130</t>
   </si>
   <si>
@@ -400,9 +1343,45 @@
     <t xml:space="preserve">         800</t>
   </si>
   <si>
+    <t xml:space="preserve">         1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      132930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       69.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       78.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       96760</t>
+  </si>
+  <si>
     <t xml:space="preserve">      144820</t>
   </si>
   <si>
+    <t xml:space="preserve">      162320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      182960</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.307</t>
   </si>
   <si>
@@ -415,9 +1394,45 @@
     <t xml:space="preserve">         510</t>
   </si>
   <si>
+    <t xml:space="preserve">       72.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      149790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       41.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       69.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       76.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       85.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       91.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      144910</t>
+  </si>
+  <si>
     <t xml:space="preserve">      159390</t>
   </si>
   <si>
+    <t xml:space="preserve">      177690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      189530</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.271</t>
   </si>
   <si>
@@ -430,7 +1445,28 @@
     <t xml:space="preserve">         930</t>
   </si>
   <si>
-    <t xml:space="preserve">      174510</t>
+    <t xml:space="preserve">       75.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      156120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       40.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       96.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       83720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      116080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      200820</t>
   </si>
   <si>
     <t xml:space="preserve">       0.102</t>
@@ -439,18 +1475,96 @@
     <t>Northern West Virginia nonmetropolitan area(5400002)</t>
   </si>
   <si>
+    <t xml:space="preserve">        29.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       34.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       72290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       28.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       28.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       35.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       59910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       59950</t>
+  </si>
+  <si>
     <t xml:space="preserve">       74800</t>
   </si>
   <si>
+    <t xml:space="preserve">       81790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97240</t>
+  </si>
+  <si>
     <t>Oklahoma City, OK(0036420)</t>
   </si>
   <si>
     <t xml:space="preserve">         130</t>
   </si>
   <si>
+    <t xml:space="preserve">         3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       59.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      123040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       38.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       60.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       69.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       83.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       96740</t>
+  </si>
+  <si>
     <t xml:space="preserve">      125200</t>
   </si>
   <si>
+    <t xml:space="preserve">      144980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      174410</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.214</t>
   </si>
   <si>
@@ -460,9 +1574,45 @@
     <t>Omaha-Council Bluffs, NE-IA(0036540)</t>
   </si>
   <si>
+    <t xml:space="preserve">       49.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      103300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       50.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       81370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87960</t>
+  </si>
+  <si>
     <t xml:space="preserve">      104120</t>
   </si>
   <si>
+    <t xml:space="preserve">      114630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      132040</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.112</t>
   </si>
   <si>
@@ -475,9 +1625,45 @@
     <t xml:space="preserve">         150</t>
   </si>
   <si>
+    <t xml:space="preserve">         2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      131280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       40.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       52.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       67.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       83470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      109120</t>
+  </si>
+  <si>
     <t xml:space="preserve">      139740</t>
   </si>
   <si>
+    <t xml:space="preserve">      154650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      167990</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.116</t>
   </si>
   <si>
@@ -490,9 +1676,42 @@
     <t xml:space="preserve">         160</t>
   </si>
   <si>
+    <t xml:space="preserve">       70.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      147310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       50.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       79.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       90.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       92.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      105620</t>
+  </si>
+  <si>
     <t xml:space="preserve">      165940</t>
   </si>
   <si>
+    <t xml:space="preserve">      188760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      191730</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.057</t>
   </si>
   <si>
@@ -505,9 +1724,42 @@
     <t xml:space="preserve">         210</t>
   </si>
   <si>
+    <t xml:space="preserve">       66.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      139010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       54.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       71.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       79.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      112470</t>
+  </si>
+  <si>
     <t xml:space="preserve">      148620</t>
   </si>
   <si>
+    <t xml:space="preserve">      165610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      182500</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.095</t>
   </si>
   <si>
@@ -517,9 +1769,48 @@
     <t>Portland-Vancouver-Hillsboro, OR-WA(0038900)</t>
   </si>
   <si>
+    <t xml:space="preserve">         8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       57.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      118860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       32.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       50.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       58.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       64.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       68440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      105660</t>
+  </si>
+  <si>
     <t xml:space="preserve">      121890</t>
   </si>
   <si>
+    <t xml:space="preserve">      135030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      155150</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.084</t>
   </si>
   <si>
@@ -532,9 +1823,42 @@
     <t xml:space="preserve">         110</t>
   </si>
   <si>
+    <t xml:space="preserve">       47.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       99580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       36.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       53.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       61.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       75710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       81200</t>
+  </si>
+  <si>
     <t xml:space="preserve">       96430</t>
   </si>
   <si>
+    <t xml:space="preserve">      111820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      127020</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.068</t>
   </si>
   <si>
@@ -547,9 +1871,42 @@
     <t xml:space="preserve">         230</t>
   </si>
   <si>
+    <t xml:space="preserve">       79.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      166120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       56.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       83.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       91.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      117730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      155500</t>
+  </si>
+  <si>
     <t xml:space="preserve">      174470</t>
   </si>
   <si>
+    <t xml:space="preserve">      191050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      201860</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.224</t>
   </si>
   <si>
@@ -562,9 +1919,48 @@
     <t xml:space="preserve">         320</t>
   </si>
   <si>
+    <t xml:space="preserve">         2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       64.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      135010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       33.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       62.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       68.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       75.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       69930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      129540</t>
+  </si>
+  <si>
     <t xml:space="preserve">      142480</t>
   </si>
   <si>
+    <t xml:space="preserve">      156330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      166730</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.415</t>
   </si>
   <si>
@@ -577,9 +1973,33 @@
     <t xml:space="preserve">         430</t>
   </si>
   <si>
+    <t xml:space="preserve">       72.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      151610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       90.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      114610</t>
+  </si>
+  <si>
     <t xml:space="preserve">      167460</t>
   </si>
   <si>
+    <t xml:space="preserve">      188740</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.179</t>
   </si>
   <si>
@@ -592,9 +2012,48 @@
     <t xml:space="preserve">         140</t>
   </si>
   <si>
+    <t xml:space="preserve">         7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       46.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       96890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       30.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       32.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       59.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       67.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       64460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       67600</t>
+  </si>
+  <si>
     <t xml:space="preserve">       95220</t>
   </si>
   <si>
+    <t xml:space="preserve">      123760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      141090</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.205</t>
   </si>
   <si>
@@ -607,9 +2066,42 @@
     <t xml:space="preserve">         460</t>
   </si>
   <si>
+    <t xml:space="preserve">       71.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      148320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       74.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       94.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       93640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      131080</t>
+  </si>
+  <si>
     <t xml:space="preserve">      154810</t>
   </si>
   <si>
+    <t xml:space="preserve">      172600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      196330</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.227</t>
   </si>
   <si>
@@ -619,9 +2111,48 @@
     <t>Springfield, MA-CT(0078100)</t>
   </si>
   <si>
+    <t xml:space="preserve">        17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       47.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       29.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       38.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       43.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       66.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       62250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       80360</t>
+  </si>
+  <si>
     <t xml:space="preserve">       91410</t>
   </si>
   <si>
+    <t xml:space="preserve">      116260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      138860</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.213</t>
   </si>
   <si>
@@ -631,6 +2162,30 @@
     <t>Springfield, MO(0044180)</t>
   </si>
   <si>
+    <t xml:space="preserve">       46.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       96010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       34.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       51.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       72680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       89360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      107560</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.197</t>
   </si>
   <si>
@@ -643,9 +2198,48 @@
     <t xml:space="preserve">         120</t>
   </si>
   <si>
+    <t xml:space="preserve">         5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       53.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      111060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       36.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       43.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       52.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       71.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       76150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       90670</t>
+  </si>
+  <si>
     <t xml:space="preserve">      109450</t>
   </si>
   <si>
+    <t xml:space="preserve">      131960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      148530</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.088</t>
   </si>
   <si>
@@ -655,18 +2249,69 @@
     <t>Tampa-St. Petersburg-Clearwater, FL(0045300)</t>
   </si>
   <si>
+    <t xml:space="preserve">         3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       60.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      125820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       61.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       76.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       82670</t>
+  </si>
+  <si>
     <t xml:space="preserve">      127510</t>
   </si>
   <si>
+    <t xml:space="preserve">      158910</t>
+  </si>
+  <si>
     <t>Virginia Beach-Norfolk-Newport News, VA-NC(0047260)</t>
   </si>
   <si>
     <t xml:space="preserve">          90</t>
   </si>
   <si>
+    <t xml:space="preserve">       49.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      103340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       37.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       43.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       49.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       63.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       78270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       90210</t>
+  </si>
+  <si>
     <t xml:space="preserve">      102790</t>
   </si>
   <si>
+    <t xml:space="preserve">      132330</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.123</t>
   </si>
   <si>
@@ -679,9 +2324,39 @@
     <t xml:space="preserve">        1420</t>
   </si>
   <si>
+    <t xml:space="preserve">         4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       70.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      146590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       15.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       60.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       79.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       90.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       32550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      125300</t>
+  </si>
+  <si>
     <t xml:space="preserve">      166090</t>
   </si>
   <si>
+    <t xml:space="preserve">      188930</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.469</t>
   </si>
   <si>
@@ -691,9 +2366,45 @@
     <t>Yuma, AZ(0049740)</t>
   </si>
   <si>
+    <t xml:space="preserve">       47.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       97760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       32.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       42.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       45.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       55.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       60.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       67190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       88210</t>
+  </si>
+  <si>
     <t xml:space="preserve">       94700</t>
   </si>
   <si>
+    <t xml:space="preserve">      116130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      126690</t>
+  </si>
+  <si>
     <t xml:space="preserve">       0.568</t>
   </si>
   <si>
@@ -706,13 +2417,16 @@
     <t>(2)Annual wages have been calculated by multiplying the corresponding hourly wage by 2,080 hours.</t>
   </si>
   <si>
+    <t>(3)The relative standard error (RSE) is a measure of the reliability of a survey statistic. The smaller the relative standard error, the more precise the estimate.</t>
+  </si>
+  <si>
     <t>(8)Estimate not released.</t>
   </si>
   <si>
     <t>SOC code: Standard Occupational Classification code -- see http://www.bls.gov/soc/home.htm</t>
   </si>
   <si>
-    <t>Date extracted on :Nov 06, 2023</t>
+    <t>Date extracted on :Nov 07, 2023</t>
   </si>
 </sst>
 </file>
@@ -1079,6 +2793,19 @@
     <col min="3" max="3" width="19.53125" customWidth="true"/>
     <col min="4" max="4" width="19.53125" customWidth="true"/>
     <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
+    <col min="8" max="8" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="19.53125" customWidth="true"/>
+    <col min="10" max="10" width="19.53125" customWidth="true"/>
+    <col min="11" max="11" width="19.53125" customWidth="true"/>
+    <col min="12" max="12" width="19.53125" customWidth="true"/>
+    <col min="13" max="13" width="19.53125" customWidth="true"/>
+    <col min="14" max="14" width="19.53125" customWidth="true"/>
+    <col min="15" max="15" width="19.53125" customWidth="true"/>
+    <col min="16" max="16" width="19.53125" customWidth="true"/>
+    <col min="17" max="17" width="19.53125" customWidth="true"/>
+    <col min="18" max="18" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1114,830 +2841,2707 @@
       <c r="E6" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="F6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s" s="3">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="N9" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="O9" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="Q9" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="R9" t="s" s="3">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="M10" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="Q10" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="R10" t="s" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="R11" t="s" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>36</v>
+        <v>112</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s" s="3">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s" s="3">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="P12" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="R12" t="s" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>41</v>
+        <v>130</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="H13" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s" s="3">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="N13" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s" s="3">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s" s="3">
+        <v>141</v>
+      </c>
+      <c r="Q13" t="s" s="3">
+        <v>142</v>
+      </c>
+      <c r="R13" t="s" s="3">
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>45</v>
+        <v>147</v>
+      </c>
+      <c r="F14" t="s" s="3">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s" s="3">
+        <v>149</v>
+      </c>
+      <c r="H14" t="s" s="3">
+        <v>150</v>
+      </c>
+      <c r="I14" t="s" s="3">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s" s="3">
+        <v>154</v>
+      </c>
+      <c r="M14" t="s" s="3">
+        <v>155</v>
+      </c>
+      <c r="N14" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="P14" t="s" s="3">
+        <v>158</v>
+      </c>
+      <c r="Q14" t="s" s="3">
+        <v>159</v>
+      </c>
+      <c r="R14" t="s" s="3">
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>49</v>
+        <v>163</v>
+      </c>
+      <c r="F15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="I15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="M15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="N15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="P15" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="Q15" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="R15" t="s" s="3">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="3">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>54</v>
+        <v>170</v>
+      </c>
+      <c r="F16" t="s" s="3">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s" s="3">
+        <v>172</v>
+      </c>
+      <c r="H16" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s" s="3">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s" s="3">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s" s="3">
+        <v>177</v>
+      </c>
+      <c r="M16" t="s" s="3">
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="3">
+        <v>179</v>
+      </c>
+      <c r="O16" t="s" s="3">
+        <v>180</v>
+      </c>
+      <c r="P16" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="Q16" t="s" s="3">
+        <v>182</v>
+      </c>
+      <c r="R16" t="s" s="3">
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="3">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>59</v>
+        <v>188</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>189</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>190</v>
+      </c>
+      <c r="H17" t="s" s="3">
+        <v>191</v>
+      </c>
+      <c r="I17" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="J17" t="s" s="3">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s" s="3">
+        <v>194</v>
+      </c>
+      <c r="L17" t="s" s="3">
+        <v>195</v>
+      </c>
+      <c r="M17" t="s" s="3">
+        <v>196</v>
+      </c>
+      <c r="N17" t="s" s="3">
+        <v>197</v>
+      </c>
+      <c r="O17" t="s" s="3">
+        <v>198</v>
+      </c>
+      <c r="P17" t="s" s="3">
+        <v>199</v>
+      </c>
+      <c r="Q17" t="s" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" t="s" s="3">
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="3">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>64</v>
+        <v>206</v>
+      </c>
+      <c r="F18" t="s" s="3">
+        <v>207</v>
+      </c>
+      <c r="G18" t="s" s="3">
+        <v>208</v>
+      </c>
+      <c r="H18" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="I18" t="s" s="3">
+        <v>210</v>
+      </c>
+      <c r="J18" t="s" s="3">
+        <v>211</v>
+      </c>
+      <c r="K18" t="s" s="3">
+        <v>212</v>
+      </c>
+      <c r="L18" t="s" s="3">
+        <v>213</v>
+      </c>
+      <c r="M18" t="s" s="3">
+        <v>214</v>
+      </c>
+      <c r="N18" t="s" s="3">
+        <v>215</v>
+      </c>
+      <c r="O18" t="s" s="3">
+        <v>216</v>
+      </c>
+      <c r="P18" t="s" s="3">
+        <v>217</v>
+      </c>
+      <c r="Q18" t="s" s="3">
+        <v>218</v>
+      </c>
+      <c r="R18" t="s" s="3">
+        <v>219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>69</v>
+        <v>224</v>
+      </c>
+      <c r="F19" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s" s="3">
+        <v>225</v>
+      </c>
+      <c r="H19" t="s" s="3">
+        <v>226</v>
+      </c>
+      <c r="I19" t="s" s="3">
+        <v>227</v>
+      </c>
+      <c r="J19" t="s" s="3">
+        <v>228</v>
+      </c>
+      <c r="K19" t="s" s="3">
+        <v>229</v>
+      </c>
+      <c r="L19" t="s" s="3">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s" s="3">
+        <v>231</v>
+      </c>
+      <c r="N19" t="s" s="3">
+        <v>232</v>
+      </c>
+      <c r="O19" t="s" s="3">
+        <v>233</v>
+      </c>
+      <c r="P19" t="s" s="3">
+        <v>234</v>
+      </c>
+      <c r="Q19" t="s" s="3">
+        <v>235</v>
+      </c>
+      <c r="R19" t="s" s="3">
+        <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>74</v>
+        <v>241</v>
+      </c>
+      <c r="F20" t="s" s="3">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s" s="3">
+        <v>242</v>
+      </c>
+      <c r="H20" t="s" s="3">
+        <v>243</v>
+      </c>
+      <c r="I20" t="s" s="3">
+        <v>244</v>
+      </c>
+      <c r="J20" t="s" s="3">
+        <v>245</v>
+      </c>
+      <c r="K20" t="s" s="3">
+        <v>246</v>
+      </c>
+      <c r="L20" t="s" s="3">
+        <v>247</v>
+      </c>
+      <c r="M20" t="s" s="3">
+        <v>248</v>
+      </c>
+      <c r="N20" t="s" s="3">
+        <v>249</v>
+      </c>
+      <c r="O20" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="P20" t="s" s="3">
+        <v>251</v>
+      </c>
+      <c r="Q20" t="s" s="3">
+        <v>252</v>
+      </c>
+      <c r="R20" t="s" s="3">
+        <v>253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>78</v>
+        <v>256</v>
+      </c>
+      <c r="F21" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="G21" t="s" s="3">
+        <v>258</v>
+      </c>
+      <c r="H21" t="s" s="3">
+        <v>259</v>
+      </c>
+      <c r="I21" t="s" s="3">
+        <v>260</v>
+      </c>
+      <c r="J21" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="K21" t="s" s="3">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="M21" t="s" s="3">
+        <v>263</v>
+      </c>
+      <c r="N21" t="s" s="3">
+        <v>264</v>
+      </c>
+      <c r="O21" t="s" s="3">
+        <v>265</v>
+      </c>
+      <c r="P21" t="s" s="3">
+        <v>217</v>
+      </c>
+      <c r="Q21" t="s" s="3">
+        <v>266</v>
+      </c>
+      <c r="R21" t="s" s="3">
+        <v>267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>83</v>
+        <v>272</v>
+      </c>
+      <c r="F22" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s" s="3">
+        <v>273</v>
+      </c>
+      <c r="I22" t="s" s="3">
+        <v>274</v>
+      </c>
+      <c r="J22" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="K22" t="s" s="3">
+        <v>276</v>
+      </c>
+      <c r="L22" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s" s="3">
+        <v>277</v>
+      </c>
+      <c r="N22" t="s" s="3">
+        <v>278</v>
+      </c>
+      <c r="O22" t="s" s="3">
+        <v>279</v>
+      </c>
+      <c r="P22" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="Q22" t="s" s="3">
+        <v>281</v>
+      </c>
+      <c r="R22" t="s" s="3">
+        <v>282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>88</v>
+        <v>287</v>
+      </c>
+      <c r="F23" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s" s="3">
+        <v>288</v>
+      </c>
+      <c r="H23" t="s" s="3">
+        <v>289</v>
+      </c>
+      <c r="I23" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="J23" t="s" s="3">
+        <v>291</v>
+      </c>
+      <c r="K23" t="s" s="3">
+        <v>292</v>
+      </c>
+      <c r="L23" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="M23" t="s" s="3">
+        <v>294</v>
+      </c>
+      <c r="N23" t="s" s="3">
+        <v>295</v>
+      </c>
+      <c r="O23" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="P23" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="Q23" t="s" s="3">
+        <v>298</v>
+      </c>
+      <c r="R23" t="s" s="3">
+        <v>299</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>93</v>
+        <v>304</v>
+      </c>
+      <c r="F24" t="s" s="3">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s" s="3">
+        <v>305</v>
+      </c>
+      <c r="H24" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="I24" t="s" s="3">
+        <v>307</v>
+      </c>
+      <c r="J24" t="s" s="3">
+        <v>308</v>
+      </c>
+      <c r="K24" t="s" s="3">
+        <v>309</v>
+      </c>
+      <c r="L24" t="s" s="3">
+        <v>310</v>
+      </c>
+      <c r="M24" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="N24" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="O24" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="P24" t="s" s="3">
+        <v>314</v>
+      </c>
+      <c r="Q24" t="s" s="3">
+        <v>315</v>
+      </c>
+      <c r="R24" t="s" s="3">
+        <v>316</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="3">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s" s="3">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="F25" t="s" s="3">
         <v>95</v>
       </c>
-      <c r="D25" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>97</v>
+      <c r="G25" t="s" s="3">
+        <v>321</v>
+      </c>
+      <c r="H25" t="s" s="3">
+        <v>322</v>
+      </c>
+      <c r="I25" t="s" s="3">
+        <v>323</v>
+      </c>
+      <c r="J25" t="s" s="3">
+        <v>324</v>
+      </c>
+      <c r="K25" t="s" s="3">
+        <v>325</v>
+      </c>
+      <c r="L25" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="M25" t="s" s="3">
+        <v>327</v>
+      </c>
+      <c r="N25" t="s" s="3">
+        <v>328</v>
+      </c>
+      <c r="O25" t="s" s="3">
+        <v>329</v>
+      </c>
+      <c r="P25" t="s" s="3">
+        <v>330</v>
+      </c>
+      <c r="Q25" t="s" s="3">
+        <v>331</v>
+      </c>
+      <c r="R25" t="s" s="3">
+        <v>332</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="3">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>102</v>
+        <v>336</v>
+      </c>
+      <c r="F26" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s" s="3">
+        <v>337</v>
+      </c>
+      <c r="H26" t="s" s="3">
+        <v>338</v>
+      </c>
+      <c r="I26" t="s" s="3">
+        <v>339</v>
+      </c>
+      <c r="J26" t="s" s="3">
+        <v>340</v>
+      </c>
+      <c r="K26" t="s" s="3">
+        <v>341</v>
+      </c>
+      <c r="L26" t="s" s="3">
+        <v>342</v>
+      </c>
+      <c r="M26" t="s" s="3">
+        <v>343</v>
+      </c>
+      <c r="N26" t="s" s="3">
+        <v>344</v>
+      </c>
+      <c r="O26" t="s" s="3">
+        <v>345</v>
+      </c>
+      <c r="P26" t="s" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q26" t="s" s="3">
+        <v>347</v>
+      </c>
+      <c r="R26" t="s" s="3">
+        <v>348</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="3">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>105</v>
+        <v>351</v>
+      </c>
+      <c r="F27" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s" s="3">
+        <v>352</v>
+      </c>
+      <c r="H27" t="s" s="3">
+        <v>353</v>
+      </c>
+      <c r="I27" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="J27" t="s" s="3">
+        <v>354</v>
+      </c>
+      <c r="K27" t="s" s="3">
+        <v>355</v>
+      </c>
+      <c r="L27" t="s" s="3">
+        <v>356</v>
+      </c>
+      <c r="M27" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="N27" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="O27" t="s" s="3">
+        <v>358</v>
+      </c>
+      <c r="P27" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="Q27" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="R27" t="s" s="3">
+        <v>361</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="3">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>108</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>109</v>
+        <v>364</v>
+      </c>
+      <c r="F28" t="s" s="3">
+        <v>365</v>
+      </c>
+      <c r="G28" t="s" s="3">
+        <v>366</v>
+      </c>
+      <c r="H28" t="s" s="3">
+        <v>367</v>
+      </c>
+      <c r="I28" t="s" s="3">
+        <v>368</v>
+      </c>
+      <c r="J28" t="s" s="3">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s" s="3">
+        <v>369</v>
+      </c>
+      <c r="L28" t="s" s="3">
+        <v>370</v>
+      </c>
+      <c r="M28" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="N28" t="s" s="3">
+        <v>372</v>
+      </c>
+      <c r="O28" t="s" s="3">
+        <v>215</v>
+      </c>
+      <c r="P28" t="s" s="3">
+        <v>373</v>
+      </c>
+      <c r="Q28" t="s" s="3">
+        <v>374</v>
+      </c>
+      <c r="R28" t="s" s="3">
+        <v>375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>114</v>
+        <v>379</v>
+      </c>
+      <c r="F29" t="s" s="3">
+        <v>380</v>
+      </c>
+      <c r="G29" t="s" s="3">
+        <v>381</v>
+      </c>
+      <c r="H29" t="s" s="3">
+        <v>382</v>
+      </c>
+      <c r="I29" t="s" s="3">
+        <v>383</v>
+      </c>
+      <c r="J29" t="s" s="3">
+        <v>384</v>
+      </c>
+      <c r="K29" t="s" s="3">
+        <v>385</v>
+      </c>
+      <c r="L29" t="s" s="3">
+        <v>386</v>
+      </c>
+      <c r="M29" t="s" s="3">
+        <v>387</v>
+      </c>
+      <c r="N29" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="O29" t="s" s="3">
+        <v>389</v>
+      </c>
+      <c r="P29" t="s" s="3">
+        <v>390</v>
+      </c>
+      <c r="Q29" t="s" s="3">
+        <v>391</v>
+      </c>
+      <c r="R29" t="s" s="3">
+        <v>392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="3">
-        <v>115</v>
+        <v>393</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>116</v>
+        <v>394</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>117</v>
+        <v>395</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>118</v>
+        <v>396</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>119</v>
+        <v>397</v>
+      </c>
+      <c r="F30" t="s" s="3">
+        <v>398</v>
+      </c>
+      <c r="G30" t="s" s="3">
+        <v>399</v>
+      </c>
+      <c r="H30" t="s" s="3">
+        <v>400</v>
+      </c>
+      <c r="I30" t="s" s="3">
+        <v>401</v>
+      </c>
+      <c r="J30" t="s" s="3">
+        <v>402</v>
+      </c>
+      <c r="K30" t="s" s="3">
+        <v>403</v>
+      </c>
+      <c r="L30" t="s" s="3">
+        <v>404</v>
+      </c>
+      <c r="M30" t="s" s="3">
+        <v>405</v>
+      </c>
+      <c r="N30" t="s" s="3">
+        <v>406</v>
+      </c>
+      <c r="O30" t="s" s="3">
+        <v>407</v>
+      </c>
+      <c r="P30" t="s" s="3">
+        <v>408</v>
+      </c>
+      <c r="Q30" t="s" s="3">
+        <v>409</v>
+      </c>
+      <c r="R30" t="s" s="3">
+        <v>410</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="3">
-        <v>120</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>121</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>122</v>
+        <v>413</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>124</v>
+        <v>415</v>
+      </c>
+      <c r="F31" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="G31" t="s" s="3">
+        <v>416</v>
+      </c>
+      <c r="H31" t="s" s="3">
+        <v>417</v>
+      </c>
+      <c r="I31" t="s" s="3">
+        <v>418</v>
+      </c>
+      <c r="J31" t="s" s="3">
+        <v>419</v>
+      </c>
+      <c r="K31" t="s" s="3">
+        <v>420</v>
+      </c>
+      <c r="L31" t="s" s="3">
+        <v>421</v>
+      </c>
+      <c r="M31" t="s" s="3">
+        <v>422</v>
+      </c>
+      <c r="N31" t="s" s="3">
+        <v>423</v>
+      </c>
+      <c r="O31" t="s" s="3">
+        <v>424</v>
+      </c>
+      <c r="P31" t="s" s="3">
+        <v>425</v>
+      </c>
+      <c r="Q31" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="R31" t="s" s="3">
+        <v>427</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="3">
-        <v>125</v>
+        <v>428</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>126</v>
+        <v>429</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>128</v>
+        <v>430</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>129</v>
+        <v>431</v>
+      </c>
+      <c r="F32" t="s" s="3">
+        <v>432</v>
+      </c>
+      <c r="G32" t="s" s="3">
+        <v>433</v>
+      </c>
+      <c r="H32" t="s" s="3">
+        <v>434</v>
+      </c>
+      <c r="I32" t="s" s="3">
+        <v>435</v>
+      </c>
+      <c r="J32" t="s" s="3">
+        <v>436</v>
+      </c>
+      <c r="K32" t="s" s="3">
+        <v>437</v>
+      </c>
+      <c r="L32" t="s" s="3">
+        <v>438</v>
+      </c>
+      <c r="M32" t="s" s="3">
+        <v>439</v>
+      </c>
+      <c r="N32" t="s" s="3">
+        <v>440</v>
+      </c>
+      <c r="O32" t="s" s="3">
+        <v>441</v>
+      </c>
+      <c r="P32" t="s" s="3">
+        <v>442</v>
+      </c>
+      <c r="Q32" t="s" s="3">
+        <v>443</v>
+      </c>
+      <c r="R32" t="s" s="3">
+        <v>444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="3">
-        <v>130</v>
+        <v>445</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>131</v>
+        <v>446</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>133</v>
+        <v>447</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>41</v>
+        <v>448</v>
+      </c>
+      <c r="F33" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s" s="3">
+        <v>449</v>
+      </c>
+      <c r="H33" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="I33" t="s" s="3">
+        <v>341</v>
+      </c>
+      <c r="J33" t="s" s="3">
+        <v>451</v>
+      </c>
+      <c r="K33" t="s" s="3">
+        <v>176</v>
+      </c>
+      <c r="L33" t="s" s="3">
+        <v>452</v>
+      </c>
+      <c r="M33" t="s" s="3">
+        <v>453</v>
+      </c>
+      <c r="N33" t="s" s="3">
+        <v>346</v>
+      </c>
+      <c r="O33" t="s" s="3">
+        <v>454</v>
+      </c>
+      <c r="P33" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="Q33" t="s" s="3">
+        <v>455</v>
+      </c>
+      <c r="R33" t="s" s="3">
+        <v>143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>135</v>
+        <v>457</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>26</v>
+        <v>458</v>
       </c>
       <c r="E34" t="s" s="3">
-        <v>27</v>
+        <v>459</v>
+      </c>
+      <c r="F34" t="s" s="3">
+        <v>460</v>
+      </c>
+      <c r="G34" t="s" s="3">
+        <v>461</v>
+      </c>
+      <c r="H34" t="s" s="3">
+        <v>462</v>
+      </c>
+      <c r="I34" t="s" s="3">
+        <v>463</v>
+      </c>
+      <c r="J34" t="s" s="3">
+        <v>464</v>
+      </c>
+      <c r="K34" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="L34" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="M34" t="s" s="3">
+        <v>467</v>
+      </c>
+      <c r="N34" t="s" s="3">
+        <v>468</v>
+      </c>
+      <c r="O34" t="s" s="3">
+        <v>469</v>
+      </c>
+      <c r="P34" t="s" s="3">
+        <v>470</v>
+      </c>
+      <c r="Q34" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="R34" t="s" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>136</v>
+        <v>471</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>137</v>
+        <v>472</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>138</v>
+        <v>473</v>
       </c>
       <c r="D35" t="s" s="3">
-        <v>139</v>
+        <v>474</v>
       </c>
       <c r="E35" t="s" s="3">
-        <v>140</v>
+        <v>475</v>
+      </c>
+      <c r="F35" t="s" s="3">
+        <v>476</v>
+      </c>
+      <c r="G35" t="s" s="3">
+        <v>477</v>
+      </c>
+      <c r="H35" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="I35" t="s" s="3">
+        <v>479</v>
+      </c>
+      <c r="J35" t="s" s="3">
+        <v>480</v>
+      </c>
+      <c r="K35" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="L35" t="s" s="3">
+        <v>482</v>
+      </c>
+      <c r="M35" t="s" s="3">
+        <v>483</v>
+      </c>
+      <c r="N35" t="s" s="3">
+        <v>484</v>
+      </c>
+      <c r="O35" t="s" s="3">
+        <v>485</v>
+      </c>
+      <c r="P35" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="Q35" t="s" s="3">
+        <v>487</v>
+      </c>
+      <c r="R35" t="s" s="3">
+        <v>488</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>144</v>
+        <v>491</v>
+      </c>
+      <c r="F36" t="s" s="3">
+        <v>492</v>
+      </c>
+      <c r="G36" t="s" s="3">
+        <v>493</v>
+      </c>
+      <c r="H36" t="s" s="3">
+        <v>494</v>
+      </c>
+      <c r="I36" t="s" s="3">
+        <v>495</v>
+      </c>
+      <c r="J36" t="s" s="3">
+        <v>496</v>
+      </c>
+      <c r="K36" t="s" s="3">
+        <v>497</v>
+      </c>
+      <c r="L36" t="s" s="3">
+        <v>498</v>
+      </c>
+      <c r="M36" t="s" s="3">
+        <v>499</v>
+      </c>
+      <c r="N36" t="s" s="3">
+        <v>500</v>
+      </c>
+      <c r="O36" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="P36" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="Q36" t="s" s="3">
+        <v>503</v>
+      </c>
+      <c r="R36" t="s" s="3">
+        <v>504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="3">
-        <v>145</v>
+        <v>505</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>146</v>
+        <v>506</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>147</v>
+        <v>507</v>
       </c>
       <c r="D37" t="s" s="3">
-        <v>148</v>
+        <v>508</v>
       </c>
       <c r="E37" t="s" s="3">
-        <v>149</v>
+        <v>509</v>
+      </c>
+      <c r="F37" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s" s="3">
+        <v>510</v>
+      </c>
+      <c r="H37" t="s" s="3">
+        <v>511</v>
+      </c>
+      <c r="I37" t="s" s="3">
+        <v>512</v>
+      </c>
+      <c r="J37" t="s" s="3">
+        <v>513</v>
+      </c>
+      <c r="K37" t="s" s="3">
+        <v>514</v>
+      </c>
+      <c r="L37" t="s" s="3">
+        <v>515</v>
+      </c>
+      <c r="M37" t="s" s="3">
+        <v>516</v>
+      </c>
+      <c r="N37" t="s" s="3">
+        <v>517</v>
+      </c>
+      <c r="O37" t="s" s="3">
+        <v>518</v>
+      </c>
+      <c r="P37" t="s" s="3">
+        <v>519</v>
+      </c>
+      <c r="Q37" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="R37" t="s" s="3">
+        <v>521</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="3">
-        <v>150</v>
+        <v>522</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>151</v>
+        <v>523</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>152</v>
+        <v>476</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>153</v>
+        <v>524</v>
       </c>
       <c r="E38" t="s" s="3">
-        <v>154</v>
+        <v>525</v>
+      </c>
+      <c r="F38" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s" s="3">
+        <v>526</v>
+      </c>
+      <c r="H38" t="s" s="3">
+        <v>527</v>
+      </c>
+      <c r="I38" t="s" s="3">
+        <v>528</v>
+      </c>
+      <c r="J38" t="s" s="3">
+        <v>529</v>
+      </c>
+      <c r="K38" t="s" s="3">
+        <v>530</v>
+      </c>
+      <c r="L38" t="s" s="3">
+        <v>531</v>
+      </c>
+      <c r="M38" t="s" s="3">
+        <v>532</v>
+      </c>
+      <c r="N38" t="s" s="3">
+        <v>533</v>
+      </c>
+      <c r="O38" t="s" s="3">
+        <v>534</v>
+      </c>
+      <c r="P38" t="s" s="3">
+        <v>535</v>
+      </c>
+      <c r="Q38" t="s" s="3">
+        <v>536</v>
+      </c>
+      <c r="R38" t="s" s="3">
+        <v>537</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>155</v>
+        <v>538</v>
       </c>
       <c r="B39" t="s" s="3">
-        <v>156</v>
+        <v>539</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>158</v>
+        <v>540</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>159</v>
+        <v>541</v>
+      </c>
+      <c r="F39" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="G39" t="s" s="3">
+        <v>542</v>
+      </c>
+      <c r="H39" t="s" s="3">
+        <v>543</v>
+      </c>
+      <c r="I39" t="s" s="3">
+        <v>544</v>
+      </c>
+      <c r="J39" t="s" s="3">
+        <v>545</v>
+      </c>
+      <c r="K39" t="s" s="3">
+        <v>546</v>
+      </c>
+      <c r="L39" t="s" s="3">
+        <v>547</v>
+      </c>
+      <c r="M39" t="s" s="3">
+        <v>548</v>
+      </c>
+      <c r="N39" t="s" s="3">
+        <v>549</v>
+      </c>
+      <c r="O39" t="s" s="3">
+        <v>550</v>
+      </c>
+      <c r="P39" t="s" s="3">
+        <v>551</v>
+      </c>
+      <c r="Q39" t="s" s="3">
+        <v>552</v>
+      </c>
+      <c r="R39" t="s" s="3">
+        <v>553</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="3">
-        <v>160</v>
+        <v>554</v>
       </c>
       <c r="B40" t="s" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>161</v>
+        <v>555</v>
       </c>
       <c r="D40" t="s" s="3">
-        <v>162</v>
+        <v>556</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>163</v>
+        <v>557</v>
+      </c>
+      <c r="F40" t="s" s="3">
+        <v>558</v>
+      </c>
+      <c r="G40" t="s" s="3">
+        <v>559</v>
+      </c>
+      <c r="H40" t="s" s="3">
+        <v>560</v>
+      </c>
+      <c r="I40" t="s" s="3">
+        <v>561</v>
+      </c>
+      <c r="J40" t="s" s="3">
+        <v>562</v>
+      </c>
+      <c r="K40" t="s" s="3">
+        <v>563</v>
+      </c>
+      <c r="L40" t="s" s="3">
+        <v>564</v>
+      </c>
+      <c r="M40" t="s" s="3">
+        <v>565</v>
+      </c>
+      <c r="N40" t="s" s="3">
+        <v>566</v>
+      </c>
+      <c r="O40" t="s" s="3">
+        <v>567</v>
+      </c>
+      <c r="P40" t="s" s="3">
+        <v>568</v>
+      </c>
+      <c r="Q40" t="s" s="3">
+        <v>569</v>
+      </c>
+      <c r="R40" t="s" s="3">
+        <v>570</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="3">
-        <v>164</v>
+        <v>571</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>165</v>
+        <v>572</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>167</v>
+        <v>573</v>
       </c>
       <c r="E41" t="s" s="3">
-        <v>168</v>
+        <v>574</v>
+      </c>
+      <c r="F41" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s" s="3">
+        <v>575</v>
+      </c>
+      <c r="H41" t="s" s="3">
+        <v>576</v>
+      </c>
+      <c r="I41" t="s" s="3">
+        <v>577</v>
+      </c>
+      <c r="J41" t="s" s="3">
+        <v>578</v>
+      </c>
+      <c r="K41" t="s" s="3">
+        <v>579</v>
+      </c>
+      <c r="L41" t="s" s="3">
+        <v>580</v>
+      </c>
+      <c r="M41" t="s" s="3">
+        <v>581</v>
+      </c>
+      <c r="N41" t="s" s="3">
+        <v>582</v>
+      </c>
+      <c r="O41" t="s" s="3">
+        <v>583</v>
+      </c>
+      <c r="P41" t="s" s="3">
+        <v>584</v>
+      </c>
+      <c r="Q41" t="s" s="3">
+        <v>585</v>
+      </c>
+      <c r="R41" t="s" s="3">
+        <v>586</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="3">
-        <v>169</v>
+        <v>587</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>170</v>
+        <v>588</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s" s="3">
-        <v>172</v>
+        <v>589</v>
       </c>
       <c r="E42" t="s" s="3">
-        <v>173</v>
+        <v>590</v>
+      </c>
+      <c r="F42" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="G42" t="s" s="3">
+        <v>591</v>
+      </c>
+      <c r="H42" t="s" s="3">
+        <v>592</v>
+      </c>
+      <c r="I42" t="s" s="3">
+        <v>593</v>
+      </c>
+      <c r="J42" t="s" s="3">
+        <v>594</v>
+      </c>
+      <c r="K42" t="s" s="3">
+        <v>595</v>
+      </c>
+      <c r="L42" t="s" s="3">
+        <v>596</v>
+      </c>
+      <c r="M42" t="s" s="3">
+        <v>597</v>
+      </c>
+      <c r="N42" t="s" s="3">
+        <v>598</v>
+      </c>
+      <c r="O42" t="s" s="3">
+        <v>599</v>
+      </c>
+      <c r="P42" t="s" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q42" t="s" s="3">
+        <v>601</v>
+      </c>
+      <c r="R42" t="s" s="3">
+        <v>602</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
-        <v>174</v>
+        <v>603</v>
       </c>
       <c r="B43" t="s" s="3">
-        <v>175</v>
+        <v>604</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>176</v>
+        <v>605</v>
       </c>
       <c r="D43" t="s" s="3">
-        <v>177</v>
+        <v>606</v>
       </c>
       <c r="E43" t="s" s="3">
-        <v>178</v>
+        <v>607</v>
+      </c>
+      <c r="F43" t="s" s="3">
+        <v>608</v>
+      </c>
+      <c r="G43" t="s" s="3">
+        <v>609</v>
+      </c>
+      <c r="H43" t="s" s="3">
+        <v>610</v>
+      </c>
+      <c r="I43" t="s" s="3">
+        <v>611</v>
+      </c>
+      <c r="J43" t="s" s="3">
+        <v>612</v>
+      </c>
+      <c r="K43" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="L43" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="M43" t="s" s="3">
+        <v>615</v>
+      </c>
+      <c r="N43" t="s" s="3">
+        <v>616</v>
+      </c>
+      <c r="O43" t="s" s="3">
+        <v>617</v>
+      </c>
+      <c r="P43" t="s" s="3">
+        <v>618</v>
+      </c>
+      <c r="Q43" t="s" s="3">
+        <v>619</v>
+      </c>
+      <c r="R43" t="s" s="3">
+        <v>620</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="3">
-        <v>179</v>
+        <v>621</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>180</v>
+        <v>622</v>
       </c>
       <c r="C44" t="s" s="3">
+        <v>492</v>
+      </c>
+      <c r="D44" t="s" s="3">
+        <v>623</v>
+      </c>
+      <c r="E44" t="s" s="3">
+        <v>624</v>
+      </c>
+      <c r="F44" t="s" s="3">
+        <v>625</v>
+      </c>
+      <c r="G44" t="s" s="3">
+        <v>462</v>
+      </c>
+      <c r="H44" t="s" s="3">
+        <v>626</v>
+      </c>
+      <c r="I44" t="s" s="3">
+        <v>627</v>
+      </c>
+      <c r="J44" t="s" s="3">
+        <v>628</v>
+      </c>
+      <c r="K44" t="s" s="3">
+        <v>176</v>
+      </c>
+      <c r="L44" t="s" s="3">
+        <v>467</v>
+      </c>
+      <c r="M44" t="s" s="3">
+        <v>629</v>
+      </c>
+      <c r="N44" t="s" s="3">
+        <v>630</v>
+      </c>
+      <c r="O44" t="s" s="3">
+        <v>631</v>
+      </c>
+      <c r="P44" t="s" s="3">
         <v>181</v>
       </c>
-      <c r="D44" t="s" s="3">
-        <v>182</v>
-      </c>
-      <c r="E44" t="s" s="3">
-        <v>183</v>
+      <c r="Q44" t="s" s="3">
+        <v>632</v>
+      </c>
+      <c r="R44" t="s" s="3">
+        <v>633</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="3">
-        <v>184</v>
+        <v>634</v>
       </c>
       <c r="B45" t="s" s="3">
-        <v>185</v>
+        <v>635</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>186</v>
+        <v>636</v>
       </c>
       <c r="D45" t="s" s="3">
-        <v>187</v>
+        <v>637</v>
       </c>
       <c r="E45" t="s" s="3">
-        <v>188</v>
+        <v>638</v>
+      </c>
+      <c r="F45" t="s" s="3">
+        <v>639</v>
+      </c>
+      <c r="G45" t="s" s="3">
+        <v>640</v>
+      </c>
+      <c r="H45" t="s" s="3">
+        <v>641</v>
+      </c>
+      <c r="I45" t="s" s="3">
+        <v>642</v>
+      </c>
+      <c r="J45" t="s" s="3">
+        <v>643</v>
+      </c>
+      <c r="K45" t="s" s="3">
+        <v>644</v>
+      </c>
+      <c r="L45" t="s" s="3">
+        <v>645</v>
+      </c>
+      <c r="M45" t="s" s="3">
+        <v>646</v>
+      </c>
+      <c r="N45" t="s" s="3">
+        <v>647</v>
+      </c>
+      <c r="O45" t="s" s="3">
+        <v>648</v>
+      </c>
+      <c r="P45" t="s" s="3">
+        <v>649</v>
+      </c>
+      <c r="Q45" t="s" s="3">
+        <v>650</v>
+      </c>
+      <c r="R45" t="s" s="3">
+        <v>651</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="3">
-        <v>189</v>
+        <v>652</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>190</v>
+        <v>653</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s" s="3">
-        <v>192</v>
+        <v>654</v>
       </c>
       <c r="E46" t="s" s="3">
-        <v>193</v>
+        <v>655</v>
+      </c>
+      <c r="F46" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s" s="3">
+        <v>656</v>
+      </c>
+      <c r="H46" t="s" s="3">
+        <v>657</v>
+      </c>
+      <c r="I46" t="s" s="3">
+        <v>658</v>
+      </c>
+      <c r="J46" t="s" s="3">
+        <v>659</v>
+      </c>
+      <c r="K46" t="s" s="3">
+        <v>660</v>
+      </c>
+      <c r="L46" t="s" s="3">
+        <v>661</v>
+      </c>
+      <c r="M46" t="s" s="3">
+        <v>662</v>
+      </c>
+      <c r="N46" t="s" s="3">
+        <v>663</v>
+      </c>
+      <c r="O46" t="s" s="3">
+        <v>664</v>
+      </c>
+      <c r="P46" t="s" s="3">
+        <v>665</v>
+      </c>
+      <c r="Q46" t="s" s="3">
+        <v>666</v>
+      </c>
+      <c r="R46" t="s" s="3">
+        <v>667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="3">
-        <v>194</v>
+        <v>668</v>
       </c>
       <c r="B47" t="s" s="3">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>195</v>
+        <v>669</v>
       </c>
       <c r="D47" t="s" s="3">
-        <v>196</v>
+        <v>670</v>
       </c>
       <c r="E47" t="s" s="3">
-        <v>197</v>
+        <v>671</v>
+      </c>
+      <c r="F47" t="s" s="3">
+        <v>672</v>
+      </c>
+      <c r="G47" t="s" s="3">
+        <v>673</v>
+      </c>
+      <c r="H47" t="s" s="3">
+        <v>674</v>
+      </c>
+      <c r="I47" t="s" s="3">
+        <v>675</v>
+      </c>
+      <c r="J47" t="s" s="3">
+        <v>676</v>
+      </c>
+      <c r="K47" t="s" s="3">
+        <v>677</v>
+      </c>
+      <c r="L47" t="s" s="3">
+        <v>678</v>
+      </c>
+      <c r="M47" t="s" s="3">
+        <v>679</v>
+      </c>
+      <c r="N47" t="s" s="3">
+        <v>680</v>
+      </c>
+      <c r="O47" t="s" s="3">
+        <v>681</v>
+      </c>
+      <c r="P47" t="s" s="3">
+        <v>682</v>
+      </c>
+      <c r="Q47" t="s" s="3">
+        <v>683</v>
+      </c>
+      <c r="R47" t="s" s="3">
+        <v>684</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="3">
-        <v>198</v>
+        <v>685</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>186</v>
+        <v>365</v>
       </c>
       <c r="D48" t="s" s="3">
-        <v>199</v>
+        <v>686</v>
       </c>
       <c r="E48" t="s" s="3">
-        <v>200</v>
+        <v>687</v>
+      </c>
+      <c r="F48" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="G48" t="s" s="3">
+        <v>688</v>
+      </c>
+      <c r="H48" t="s" s="3">
+        <v>689</v>
+      </c>
+      <c r="I48" t="s" s="3">
+        <v>642</v>
+      </c>
+      <c r="J48" t="s" s="3">
+        <v>690</v>
+      </c>
+      <c r="K48" t="s" s="3">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s" s="3">
+        <v>691</v>
+      </c>
+      <c r="M48" t="s" s="3">
+        <v>692</v>
+      </c>
+      <c r="N48" t="s" s="3">
+        <v>647</v>
+      </c>
+      <c r="O48" t="s" s="3">
+        <v>693</v>
+      </c>
+      <c r="P48" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="Q48" t="s" s="3">
+        <v>694</v>
+      </c>
+      <c r="R48" t="s" s="3">
+        <v>695</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="3">
-        <v>201</v>
+        <v>696</v>
       </c>
       <c r="B49" t="s" s="3">
-        <v>202</v>
+        <v>697</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>203</v>
+        <v>698</v>
       </c>
       <c r="D49" t="s" s="3">
-        <v>204</v>
+        <v>699</v>
       </c>
       <c r="E49" t="s" s="3">
-        <v>205</v>
+        <v>700</v>
+      </c>
+      <c r="F49" t="s" s="3">
+        <v>701</v>
+      </c>
+      <c r="G49" t="s" s="3">
+        <v>702</v>
+      </c>
+      <c r="H49" t="s" s="3">
+        <v>703</v>
+      </c>
+      <c r="I49" t="s" s="3">
+        <v>704</v>
+      </c>
+      <c r="J49" t="s" s="3">
+        <v>705</v>
+      </c>
+      <c r="K49" t="s" s="3">
+        <v>706</v>
+      </c>
+      <c r="L49" t="s" s="3">
+        <v>707</v>
+      </c>
+      <c r="M49" t="s" s="3">
+        <v>708</v>
+      </c>
+      <c r="N49" t="s" s="3">
+        <v>709</v>
+      </c>
+      <c r="O49" t="s" s="3">
+        <v>710</v>
+      </c>
+      <c r="P49" t="s" s="3">
+        <v>711</v>
+      </c>
+      <c r="Q49" t="s" s="3">
+        <v>712</v>
+      </c>
+      <c r="R49" t="s" s="3">
+        <v>713</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="3">
-        <v>206</v>
+        <v>714</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>165</v>
+        <v>572</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>207</v>
+        <v>715</v>
       </c>
       <c r="D50" t="s" s="3">
-        <v>30</v>
+        <v>716</v>
       </c>
       <c r="E50" t="s" s="3">
-        <v>31</v>
+        <v>717</v>
+      </c>
+      <c r="F50" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="G50" t="s" s="3">
+        <v>718</v>
+      </c>
+      <c r="H50" t="s" s="3">
+        <v>703</v>
+      </c>
+      <c r="I50" t="s" s="3">
+        <v>719</v>
+      </c>
+      <c r="J50" t="s" s="3">
+        <v>720</v>
+      </c>
+      <c r="K50" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="L50" t="s" s="3">
+        <v>721</v>
+      </c>
+      <c r="M50" t="s" s="3">
+        <v>708</v>
+      </c>
+      <c r="N50" t="s" s="3">
+        <v>722</v>
+      </c>
+      <c r="O50" t="s" s="3">
+        <v>723</v>
+      </c>
+      <c r="P50" t="s" s="3">
+        <v>618</v>
+      </c>
+      <c r="Q50" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="R50" t="s" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="3">
-        <v>208</v>
+        <v>724</v>
       </c>
       <c r="B51" t="s" s="3">
-        <v>209</v>
+        <v>725</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s" s="3">
-        <v>211</v>
+        <v>726</v>
       </c>
       <c r="E51" t="s" s="3">
-        <v>212</v>
+        <v>727</v>
+      </c>
+      <c r="F51" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="G51" t="s" s="3">
+        <v>728</v>
+      </c>
+      <c r="H51" t="s" s="3">
+        <v>729</v>
+      </c>
+      <c r="I51" t="s" s="3">
+        <v>730</v>
+      </c>
+      <c r="J51" t="s" s="3">
+        <v>543</v>
+      </c>
+      <c r="K51" t="s" s="3">
+        <v>731</v>
+      </c>
+      <c r="L51" t="s" s="3">
+        <v>732</v>
+      </c>
+      <c r="M51" t="s" s="3">
+        <v>733</v>
+      </c>
+      <c r="N51" t="s" s="3">
+        <v>734</v>
+      </c>
+      <c r="O51" t="s" s="3">
+        <v>548</v>
+      </c>
+      <c r="P51" t="s" s="3">
+        <v>735</v>
+      </c>
+      <c r="Q51" t="s" s="3">
+        <v>736</v>
+      </c>
+      <c r="R51" t="s" s="3">
+        <v>737</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="3">
-        <v>213</v>
+        <v>738</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>214</v>
+        <v>739</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>215</v>
+        <v>740</v>
       </c>
       <c r="D52" t="s" s="3">
-        <v>216</v>
+        <v>741</v>
       </c>
       <c r="E52" t="s" s="3">
-        <v>217</v>
+        <v>742</v>
+      </c>
+      <c r="F52" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="G52" t="s" s="3">
+        <v>743</v>
+      </c>
+      <c r="H52" t="s" s="3">
+        <v>744</v>
+      </c>
+      <c r="I52" t="s" s="3">
+        <v>745</v>
+      </c>
+      <c r="J52" t="s" s="3">
+        <v>746</v>
+      </c>
+      <c r="K52" t="s" s="3">
+        <v>176</v>
+      </c>
+      <c r="L52" t="s" s="3">
+        <v>747</v>
+      </c>
+      <c r="M52" t="s" s="3">
+        <v>748</v>
+      </c>
+      <c r="N52" t="s" s="3">
+        <v>749</v>
+      </c>
+      <c r="O52" t="s" s="3">
+        <v>750</v>
+      </c>
+      <c r="P52" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="Q52" t="s" s="3">
+        <v>751</v>
+      </c>
+      <c r="R52" t="s" s="3">
+        <v>752</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
-        <v>218</v>
+        <v>753</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>219</v>
+        <v>492</v>
       </c>
       <c r="D53" t="s" s="3">
-        <v>220</v>
+        <v>754</v>
       </c>
       <c r="E53" t="s" s="3">
-        <v>221</v>
+        <v>755</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>756</v>
+      </c>
+      <c r="G53" t="s" s="3">
+        <v>757</v>
+      </c>
+      <c r="H53" t="s" s="3">
+        <v>758</v>
+      </c>
+      <c r="I53" t="s" s="3">
+        <v>759</v>
+      </c>
+      <c r="J53" t="s" s="3">
+        <v>760</v>
+      </c>
+      <c r="K53" t="s" s="3">
+        <v>761</v>
+      </c>
+      <c r="L53" t="s" s="3">
+        <v>762</v>
+      </c>
+      <c r="M53" t="s" s="3">
+        <v>763</v>
+      </c>
+      <c r="N53" t="s" s="3">
+        <v>764</v>
+      </c>
+      <c r="O53" t="s" s="3">
+        <v>765</v>
+      </c>
+      <c r="P53" t="s" s="3">
+        <v>766</v>
+      </c>
+      <c r="Q53" t="s" s="3">
+        <v>767</v>
+      </c>
+      <c r="R53" t="s" s="3">
+        <v>768</v>
       </c>
     </row>
     <row r="54"/>
     <row r="55">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>770</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>225</v>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +5551,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: November 6, 2023 (03:27:45 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: November 7, 2023 (12:07:37 PM)</oddFooter>
   </headerFooter>
 </worksheet>
 </file>